--- a/telas.xlsx
+++ b/telas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="858" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="Melhorias" sheetId="5" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="181">
   <si>
     <t>http://bootsnipp.com/snippets/featured/panel-tables-with-filter</t>
   </si>
@@ -634,6 +634,12 @@
   </si>
   <si>
     <t xml:space="preserve">Alertas </t>
+  </si>
+  <si>
+    <t>http://www.gajotres.net/ionic-framework-tutorial-6-side-menu-pattern/        ou   http://plnkr.co/edit/XnFosA?p=preview</t>
+  </si>
+  <si>
+    <t>https://github.com/katzer/cordova-plugin-local-notifications/</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -825,11 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,6 +874,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -881,6 +898,662 @@
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -904,6 +1577,114 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -931,8 +1712,17 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -942,12 +1732,91 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -976,6 +1845,114 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1003,6 +1980,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1016,110 +2000,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1201,601 +2085,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1824,6 +2113,114 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1851,6 +2248,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1864,76 +2268,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1959,29 +2297,8 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1992,6 +2309,20 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2001,8 +2332,34 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2019,36 +2376,12 @@
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2064,327 +2397,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -2768,12 +2780,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:E30" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="96" tableBorderDxfId="97" totalsRowBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:E30" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="B2:E30"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Código" dataDxfId="4"/>
-    <tableColumn id="1" name="Melhorias " dataDxfId="94"/>
-    <tableColumn id="2" name="Sugestão" dataDxfId="93"/>
+    <tableColumn id="4" name="Código" dataDxfId="93"/>
+    <tableColumn id="1" name="Melhorias " dataDxfId="92"/>
+    <tableColumn id="2" name="Sugestão" dataDxfId="0"/>
     <tableColumn id="3" name="Status" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2781,140 +2793,140 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela213" displayName="Tabela213" ref="I2:M15" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela213" displayName="Tabela213" ref="I2:M15" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="I2:M15"/>
   <tableColumns count="5">
-    <tableColumn id="10" name="Código" dataDxfId="22"/>
-    <tableColumn id="1" name="Atividades" dataDxfId="21"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="20"/>
-    <tableColumn id="4" name="Status" dataDxfId="19"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="18"/>
+    <tableColumn id="10" name="Código" dataDxfId="14"/>
+    <tableColumn id="1" name="Atividades" dataDxfId="13"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="12"/>
+    <tableColumn id="4" name="Status" dataDxfId="11"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela2414" displayName="Tabela2414" ref="I18:M31" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela2414" displayName="Tabela2414" ref="I18:M31" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="I18:M31"/>
   <tableColumns count="5">
-    <tableColumn id="6" name="Código" dataDxfId="13"/>
-    <tableColumn id="1" name="Bugs" dataDxfId="12"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="11"/>
-    <tableColumn id="4" name="Status" dataDxfId="10"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="9"/>
+    <tableColumn id="6" name="Código" dataDxfId="5"/>
+    <tableColumn id="1" name="Bugs" dataDxfId="4"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="3"/>
+    <tableColumn id="4" name="Status" dataDxfId="2"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="I2:M15" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela25" displayName="Tabela25" ref="I2:M15" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="I2:M15"/>
   <tableColumns count="5">
-    <tableColumn id="10" name="Código" dataDxfId="62"/>
-    <tableColumn id="1" name="Atividades" dataDxfId="61"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="72"/>
-    <tableColumn id="4" name="Status" dataDxfId="71"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="70"/>
+    <tableColumn id="10" name="Código" dataDxfId="86"/>
+    <tableColumn id="1" name="Atividades" dataDxfId="85"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="84"/>
+    <tableColumn id="4" name="Status" dataDxfId="83"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela246" displayName="Tabela246" ref="I18:M31" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela246" displayName="Tabela246" ref="I18:M31" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
   <autoFilter ref="I18:M31"/>
   <tableColumns count="5">
-    <tableColumn id="6" name="Código" dataDxfId="60"/>
-    <tableColumn id="1" name="Bugs" dataDxfId="59"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="65"/>
-    <tableColumn id="4" name="Status" dataDxfId="64"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="63"/>
+    <tableColumn id="6" name="Código" dataDxfId="77"/>
+    <tableColumn id="1" name="Bugs" dataDxfId="76"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="75"/>
+    <tableColumn id="4" name="Status" dataDxfId="74"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="I2:M15" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="89" tableBorderDxfId="90" totalsRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="I2:M15" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="I2:M15"/>
   <tableColumns count="5">
-    <tableColumn id="10" name="Código" dataDxfId="3"/>
-    <tableColumn id="1" name="Atividades" dataDxfId="2"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="80"/>
-    <tableColumn id="4" name="Status" dataDxfId="87"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="78"/>
+    <tableColumn id="10" name="Código" dataDxfId="68"/>
+    <tableColumn id="1" name="Atividades" dataDxfId="67"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="66"/>
+    <tableColumn id="4" name="Status" dataDxfId="65"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="I18:M31" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="83" tableBorderDxfId="84" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="I18:M31" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <autoFilter ref="I18:M31"/>
   <tableColumns count="5">
-    <tableColumn id="6" name="Código" dataDxfId="1"/>
-    <tableColumn id="1" name="Bugs" dataDxfId="0"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="79"/>
-    <tableColumn id="4" name="Status" dataDxfId="81"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="77"/>
+    <tableColumn id="6" name="Código" dataDxfId="59"/>
+    <tableColumn id="1" name="Bugs" dataDxfId="58"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="57"/>
+    <tableColumn id="4" name="Status" dataDxfId="56"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela27" displayName="Tabela27" ref="I2:M15" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="56" tableBorderDxfId="57" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela27" displayName="Tabela27" ref="I2:M15" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="I2:M15"/>
   <tableColumns count="5">
-    <tableColumn id="10" name="Código" dataDxfId="8"/>
-    <tableColumn id="1" name="Atividades" dataDxfId="7"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="54"/>
-    <tableColumn id="4" name="Status" dataDxfId="53"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="52"/>
+    <tableColumn id="10" name="Código" dataDxfId="50"/>
+    <tableColumn id="1" name="Atividades" dataDxfId="49"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="48"/>
+    <tableColumn id="4" name="Status" dataDxfId="47"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela248" displayName="Tabela248" ref="I18:M31" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="49" tableBorderDxfId="50" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela248" displayName="Tabela248" ref="I18:M31" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <autoFilter ref="I18:M31"/>
   <tableColumns count="5">
-    <tableColumn id="6" name="Código" dataDxfId="6"/>
-    <tableColumn id="1" name="Bugs" dataDxfId="5"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="47"/>
-    <tableColumn id="4" name="Status" dataDxfId="46"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="45"/>
+    <tableColumn id="6" name="Código" dataDxfId="41"/>
+    <tableColumn id="1" name="Bugs" dataDxfId="40"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="39"/>
+    <tableColumn id="4" name="Status" dataDxfId="38"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela29" displayName="Tabela29" ref="I2:M15" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela29" displayName="Tabela29" ref="I2:M15" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="I2:M15"/>
   <tableColumns count="5">
-    <tableColumn id="10" name="Código" dataDxfId="40"/>
-    <tableColumn id="1" name="Atividades" dataDxfId="39"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="38"/>
-    <tableColumn id="4" name="Status" dataDxfId="37"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="36"/>
+    <tableColumn id="10" name="Código" dataDxfId="32"/>
+    <tableColumn id="1" name="Atividades" dataDxfId="31"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="30"/>
+    <tableColumn id="4" name="Status" dataDxfId="29"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela2410" displayName="Tabela2410" ref="I18:M31" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela2410" displayName="Tabela2410" ref="I18:M31" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="I18:M31"/>
   <tableColumns count="5">
-    <tableColumn id="6" name="Código" dataDxfId="31"/>
-    <tableColumn id="1" name="Bugs" dataDxfId="30"/>
-    <tableColumn id="3" name="Estimativa(H)" dataDxfId="29"/>
-    <tableColumn id="4" name="Status" dataDxfId="28"/>
-    <tableColumn id="5" name="Dependência" dataDxfId="27"/>
+    <tableColumn id="6" name="Código" dataDxfId="23"/>
+    <tableColumn id="1" name="Bugs" dataDxfId="22"/>
+    <tableColumn id="3" name="Estimativa(H)" dataDxfId="21"/>
+    <tableColumn id="4" name="Status" dataDxfId="20"/>
+    <tableColumn id="5" name="Dependência" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3185,8 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,24 +3206,24 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" customWidth="1"/>
-    <col min="4" max="4" width="63.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="10"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1"/>
@@ -3254,10 +3266,10 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
@@ -3300,10 +3312,10 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -3346,10 +3358,10 @@
       <c r="C5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1"/>
@@ -3392,10 +3404,10 @@
       <c r="C6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1"/>
@@ -3431,13 +3443,15 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3476,8 +3490,10 @@
         <v>174</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3514,8 +3530,8 @@
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3552,8 +3568,8 @@
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3590,8 +3606,8 @@
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3628,8 +3644,8 @@
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3666,8 +3682,8 @@
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3706,10 +3722,10 @@
       <c r="C14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3746,8 +3762,8 @@
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3784,8 +3800,8 @@
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3822,8 +3838,8 @@
     <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3860,8 +3876,8 @@
     <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3898,8 +3914,8 @@
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3936,8 +3952,8 @@
     <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3974,8 +3990,8 @@
     <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4012,8 +4028,8 @@
     <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4050,8 +4066,8 @@
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4088,8 +4104,8 @@
     <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4126,8 +4142,8 @@
     <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4164,8 +4180,8 @@
     <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4202,8 +4218,8 @@
     <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4240,8 +4256,8 @@
     <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4278,8 +4294,8 @@
     <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="12"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4316,8 +4332,8 @@
     <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7561,9 +7577,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:M31"/>
+  <dimension ref="I2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -7572,26 +7588,26 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7599,10 +7615,10 @@
       <c r="I3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
@@ -7612,10 +7628,10 @@
       <c r="I4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
@@ -7625,10 +7641,10 @@
       <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>40</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -7640,10 +7656,10 @@
       <c r="I6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -7655,10 +7671,10 @@
       <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
@@ -7668,10 +7684,10 @@
       <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <v>4</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -7685,10 +7701,10 @@
       <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <v>4</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -7702,10 +7718,10 @@
       <c r="I10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <v>4</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -7719,10 +7735,10 @@
       <c r="I11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <v>12</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -7736,10 +7752,10 @@
       <c r="I12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="18">
         <v>20</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -7751,8 +7767,8 @@
       <c r="I13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
     </row>
@@ -7760,8 +7776,8 @@
       <c r="I14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
     </row>
@@ -7769,25 +7785,25 @@
       <c r="I15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="9"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="4"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7795,16 +7811,16 @@
       <c r="I19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="18">
         <v>2</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7812,8 +7828,8 @@
       <c r="I20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
     </row>
@@ -7821,8 +7837,8 @@
       <c r="I21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
     </row>
@@ -7830,8 +7846,8 @@
       <c r="I22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
     </row>
@@ -7839,8 +7855,8 @@
       <c r="I23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
     </row>
@@ -7848,8 +7864,8 @@
       <c r="I24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
     </row>
@@ -7857,8 +7873,8 @@
       <c r="I25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
     </row>
@@ -7866,8 +7882,8 @@
       <c r="I26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
     </row>
@@ -7875,8 +7891,8 @@
       <c r="I27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
     </row>
@@ -7884,8 +7900,8 @@
       <c r="I28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
     </row>
@@ -7893,8 +7909,8 @@
       <c r="I29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
     </row>
@@ -7902,8 +7918,8 @@
       <c r="I30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
     </row>
@@ -7911,9 +7927,9 @@
       <c r="I31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="9"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="4"/>
     </row>
   </sheetData>
@@ -7934,7 +7950,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:M31"/>
+  <dimension ref="I2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -7945,26 +7961,26 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7972,10 +7988,10 @@
       <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
@@ -7985,10 +8001,10 @@
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
@@ -7998,10 +8014,10 @@
       <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>8</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -8015,10 +8031,10 @@
       <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="5" t="s">
         <v>46</v>
       </c>
@@ -8028,10 +8044,10 @@
       <c r="I7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5" t="s">
         <v>46</v>
       </c>
@@ -8041,10 +8057,10 @@
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="5" t="s">
         <v>46</v>
       </c>
@@ -8054,10 +8070,10 @@
       <c r="I9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <v>2</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -8071,10 +8087,10 @@
       <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <v>2</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -8088,8 +8104,8 @@
       <c r="I11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
     </row>
@@ -8097,8 +8113,8 @@
       <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
     </row>
@@ -8106,8 +8122,8 @@
       <c r="I13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
     </row>
@@ -8115,8 +8131,8 @@
       <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
     </row>
@@ -8124,25 +8140,25 @@
       <c r="I15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="9"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="4"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8150,10 +8166,10 @@
       <c r="I19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="18" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -8165,8 +8181,8 @@
       <c r="I20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
     </row>
@@ -8174,8 +8190,8 @@
       <c r="I21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
     </row>
@@ -8183,8 +8199,8 @@
       <c r="I22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
     </row>
@@ -8192,8 +8208,8 @@
       <c r="I23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
     </row>
@@ -8201,8 +8217,8 @@
       <c r="I24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
     </row>
@@ -8210,8 +8226,8 @@
       <c r="I25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
     </row>
@@ -8219,8 +8235,8 @@
       <c r="I26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
     </row>
@@ -8228,8 +8244,8 @@
       <c r="I27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
     </row>
@@ -8237,8 +8253,8 @@
       <c r="I28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
     </row>
@@ -8246,8 +8262,8 @@
       <c r="I29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
     </row>
@@ -8255,8 +8271,8 @@
       <c r="I30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
     </row>
@@ -8264,9 +8280,9 @@
       <c r="I31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="9"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="4"/>
     </row>
   </sheetData>
@@ -8286,7 +8302,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:M31"/>
+  <dimension ref="I2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
@@ -8297,26 +8313,26 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8324,10 +8340,10 @@
       <c r="I3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -8339,10 +8355,10 @@
       <c r="I4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>6</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -8356,8 +8372,8 @@
       <c r="I5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
     </row>
@@ -8365,8 +8381,8 @@
       <c r="I6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
     </row>
@@ -8374,8 +8390,8 @@
       <c r="I7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
     </row>
@@ -8383,8 +8399,8 @@
       <c r="I8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="5"/>
       <c r="M8" s="4"/>
     </row>
@@ -8392,8 +8408,8 @@
       <c r="I9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
@@ -8401,8 +8417,8 @@
       <c r="I10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
@@ -8410,8 +8426,8 @@
       <c r="I11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
     </row>
@@ -8419,8 +8435,8 @@
       <c r="I12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
     </row>
@@ -8428,8 +8444,8 @@
       <c r="I13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
     </row>
@@ -8437,8 +8453,8 @@
       <c r="I14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
     </row>
@@ -8446,25 +8462,25 @@
       <c r="I15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="9"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="4"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8472,8 +8488,8 @@
       <c r="I19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
     </row>
@@ -8481,8 +8497,8 @@
       <c r="I20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
     </row>
@@ -8490,8 +8506,8 @@
       <c r="I21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
     </row>
@@ -8499,8 +8515,8 @@
       <c r="I22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
     </row>
@@ -8508,8 +8524,8 @@
       <c r="I23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
     </row>
@@ -8517,8 +8533,8 @@
       <c r="I24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
     </row>
@@ -8526,8 +8542,8 @@
       <c r="I25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
     </row>
@@ -8535,8 +8551,8 @@
       <c r="I26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
     </row>
@@ -8544,8 +8560,8 @@
       <c r="I27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
     </row>
@@ -8553,8 +8569,8 @@
       <c r="I28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
     </row>
@@ -8562,8 +8578,8 @@
       <c r="I29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
     </row>
@@ -8571,8 +8587,8 @@
       <c r="I30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
     </row>
@@ -8580,9 +8596,9 @@
       <c r="I31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="9"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="4"/>
     </row>
   </sheetData>
@@ -8601,7 +8617,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:M31"/>
+  <dimension ref="I2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -8612,26 +8628,26 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8639,10 +8655,10 @@
       <c r="I3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -8654,10 +8670,10 @@
       <c r="I4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>10</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -8672,7 +8688,7 @@
         <v>119</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
@@ -8681,7 +8697,7 @@
         <v>120</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
     </row>
@@ -8690,7 +8706,7 @@
         <v>121</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
     </row>
@@ -8699,7 +8715,7 @@
         <v>122</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="5"/>
       <c r="M8" s="4"/>
     </row>
@@ -8708,7 +8724,7 @@
         <v>123</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
@@ -8717,7 +8733,7 @@
         <v>124</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
@@ -8726,7 +8742,7 @@
         <v>125</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
     </row>
@@ -8735,7 +8751,7 @@
         <v>126</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
     </row>
@@ -8744,7 +8760,7 @@
         <v>127</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
     </row>
@@ -8753,7 +8769,7 @@
         <v>128</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
     </row>
@@ -8762,24 +8778,24 @@
         <v>129</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="4"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8788,7 +8804,7 @@
         <v>130</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
     </row>
@@ -8797,7 +8813,7 @@
         <v>131</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
     </row>
@@ -8806,7 +8822,7 @@
         <v>132</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
     </row>
@@ -8815,7 +8831,7 @@
         <v>133</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
     </row>
@@ -8824,7 +8840,7 @@
         <v>134</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
     </row>
@@ -8833,7 +8849,7 @@
         <v>135</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
     </row>
@@ -8842,7 +8858,7 @@
         <v>136</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
     </row>
@@ -8851,7 +8867,7 @@
         <v>137</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
     </row>
@@ -8860,7 +8876,7 @@
         <v>138</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
     </row>
@@ -8869,7 +8885,7 @@
         <v>139</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
     </row>
@@ -8878,7 +8894,7 @@
         <v>140</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
     </row>
@@ -8887,7 +8903,7 @@
         <v>141</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
     </row>
@@ -8896,8 +8912,8 @@
         <v>142</v>
       </c>
       <c r="J31" s="7"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="9"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="4"/>
     </row>
   </sheetData>
@@ -8916,7 +8932,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:M31"/>
+  <dimension ref="I2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
@@ -8927,26 +8943,26 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8954,10 +8970,10 @@
       <c r="I3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -8969,10 +8985,10 @@
       <c r="I4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>6</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -8989,7 +9005,7 @@
       <c r="J5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>8</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -9002,7 +9018,7 @@
         <v>146</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
     </row>
@@ -9011,7 +9027,7 @@
         <v>147</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
     </row>
@@ -9020,7 +9036,7 @@
         <v>148</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="5"/>
       <c r="M8" s="4"/>
     </row>
@@ -9029,7 +9045,7 @@
         <v>149</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
@@ -9038,7 +9054,7 @@
         <v>150</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
@@ -9047,7 +9063,7 @@
         <v>151</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
     </row>
@@ -9056,7 +9072,7 @@
         <v>152</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
     </row>
@@ -9065,7 +9081,7 @@
         <v>153</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
     </row>
@@ -9074,7 +9090,7 @@
         <v>154</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
     </row>
@@ -9083,24 +9099,24 @@
         <v>155</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="4"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9109,7 +9125,7 @@
         <v>156</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
     </row>
@@ -9118,7 +9134,7 @@
         <v>157</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
     </row>
@@ -9127,7 +9143,7 @@
         <v>158</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
     </row>
@@ -9136,7 +9152,7 @@
         <v>159</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
     </row>
@@ -9145,7 +9161,7 @@
         <v>160</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
     </row>
@@ -9154,7 +9170,7 @@
         <v>161</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
     </row>
@@ -9163,7 +9179,7 @@
         <v>162</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
     </row>
@@ -9172,7 +9188,7 @@
         <v>163</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
     </row>
@@ -9181,7 +9197,7 @@
         <v>164</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
     </row>
@@ -9190,7 +9206,7 @@
         <v>165</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
     </row>
@@ -9199,7 +9215,7 @@
         <v>166</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
     </row>
@@ -9208,7 +9224,7 @@
         <v>167</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
     </row>
@@ -9217,8 +9233,8 @@
         <v>168</v>
       </c>
       <c r="J31" s="7"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="9"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="4"/>
     </row>
   </sheetData>
